--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\polynomial_approximation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\Documents\GitHub\polynomial_approximation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83554D90-0A4D-4348-80A7-11B22E564FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443F8DA1-240E-4DCD-894D-444B544ED16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -88,6 +88,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA88C80D-455A-4513-8C6D-49165B77AF37}" name="Table1" displayName="Table1" ref="A1:B15" totalsRowShown="0">
   <autoFilter ref="A1:B15" xr:uid="{FA88C80D-455A-4513-8C6D-49165B77AF37}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B15">
+    <sortCondition ref="A1:A15"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DF1DDD27-ED99-4CD9-A8AF-02EB22BB1BF1}" name="X"/>
     <tableColumn id="2" xr3:uid="{DE391C19-5551-4B8E-8F2A-710BC40C3BAC}" name="Y"/>
@@ -362,15 +365,15 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,47 +381,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>63</v>
+      </c>
+      <c r="B6">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>69</v>
-      </c>
-      <c r="B5">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>64</v>
       </c>
@@ -426,68 +429,68 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>68</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>59</v>
-      </c>
-      <c r="B9">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>81</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>83</v>
+      </c>
+      <c r="B14">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>91</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>57</v>
-      </c>
-      <c r="B12">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>65</v>
-      </c>
-      <c r="B13">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>58</v>
-      </c>
-      <c r="B14">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>62</v>
-      </c>
-      <c r="B15">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
